--- a/Code/Results/Cases/Case_9_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.95398302035602</v>
+        <v>1.895920029245616</v>
       </c>
       <c r="C2">
-        <v>0.3413844537435864</v>
+        <v>0.3453076663299868</v>
       </c>
       <c r="D2">
-        <v>0.08123712627799051</v>
+        <v>0.082467180395426</v>
       </c>
       <c r="E2">
-        <v>0.06150870579161616</v>
+        <v>0.05995734431757782</v>
       </c>
       <c r="F2">
-        <v>0.6676804578081672</v>
+        <v>0.6330257526096261</v>
       </c>
       <c r="G2">
-        <v>0.4336366694215883</v>
+        <v>0.3859268589892224</v>
       </c>
       <c r="H2">
-        <v>0.003367095366913098</v>
+        <v>0.00280141641298437</v>
       </c>
       <c r="I2">
-        <v>0.00277787969438581</v>
+        <v>0.002058817515064426</v>
       </c>
       <c r="J2">
-        <v>0.3574491823939212</v>
+        <v>0.3724290504568941</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0840772475949576</v>
+        <v>0.167467124175861</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.09754556404154258</v>
       </c>
       <c r="N2">
-        <v>0.1747165469720571</v>
+        <v>0.08180133141867785</v>
       </c>
       <c r="O2">
-        <v>0.3587091825019684</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.964706530686108</v>
+        <v>0.1887220848509514</v>
       </c>
       <c r="Q2">
-        <v>1.615315936994477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3559671898153809</v>
+      </c>
+      <c r="R2">
+        <v>0.9628874626625716</v>
+      </c>
+      <c r="S2">
+        <v>1.515123551331357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.704822333202344</v>
+        <v>1.65840132582241</v>
       </c>
       <c r="C3">
-        <v>0.3162792084743131</v>
+        <v>0.3141796540030413</v>
       </c>
       <c r="D3">
-        <v>0.07673563544474149</v>
+        <v>0.077957450461561</v>
       </c>
       <c r="E3">
-        <v>0.06043200275744809</v>
+        <v>0.05910207955132751</v>
       </c>
       <c r="F3">
-        <v>0.6433105542851365</v>
+        <v>0.6121276819142381</v>
       </c>
       <c r="G3">
-        <v>0.4135663574144886</v>
+        <v>0.3699940000269919</v>
       </c>
       <c r="H3">
-        <v>0.004872734982444338</v>
+        <v>0.004087458040983649</v>
       </c>
       <c r="I3">
-        <v>0.00402082432648232</v>
+        <v>0.00295435712549752</v>
       </c>
       <c r="J3">
-        <v>0.3520023178741098</v>
+        <v>0.3658898771287227</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08232391197642697</v>
+        <v>0.1719729195130242</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.09608284334423445</v>
       </c>
       <c r="N3">
-        <v>0.1574651676226324</v>
+        <v>0.08007863520072611</v>
       </c>
       <c r="O3">
-        <v>0.3144575259210498</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.975423764940075</v>
+        <v>0.1700256772948947</v>
       </c>
       <c r="Q3">
-        <v>1.561083365965089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3122371017787415</v>
+      </c>
+      <c r="R3">
+        <v>0.9668303638622291</v>
+      </c>
+      <c r="S3">
+        <v>1.470424741813986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.551218314676362</v>
+        <v>1.51168261497466</v>
       </c>
       <c r="C4">
-        <v>0.3009184603311468</v>
+        <v>0.2952277618711037</v>
       </c>
       <c r="D4">
-        <v>0.07400237209242277</v>
+        <v>0.07522582140087763</v>
       </c>
       <c r="E4">
-        <v>0.05975748258124103</v>
+        <v>0.05856444602777167</v>
       </c>
       <c r="F4">
-        <v>0.6288165656910039</v>
+        <v>0.5996480256967942</v>
       </c>
       <c r="G4">
-        <v>0.4015975389179687</v>
+        <v>0.3605538846246858</v>
       </c>
       <c r="H4">
-        <v>0.005976833935129766</v>
+        <v>0.005033629572446852</v>
       </c>
       <c r="I4">
-        <v>0.00498317171336371</v>
+        <v>0.003672550386183637</v>
       </c>
       <c r="J4">
-        <v>0.3489115728380483</v>
+        <v>0.3619462357145906</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.08120863454829674</v>
+        <v>0.1748244125839165</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09573967007156625</v>
       </c>
       <c r="N4">
-        <v>0.1469268858988002</v>
+        <v>0.07898731240958368</v>
       </c>
       <c r="O4">
-        <v>0.2872401150383297</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9827138630217149</v>
+        <v>0.1586356579879507</v>
       </c>
       <c r="Q4">
-        <v>1.529058594175609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2853188511550897</v>
+      </c>
+      <c r="R4">
+        <v>0.9700396653946228</v>
+      </c>
+      <c r="S4">
+        <v>1.443893034875913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.487519201055306</v>
+        <v>1.450735365390301</v>
       </c>
       <c r="C5">
-        <v>0.2950481928727982</v>
+        <v>0.2879496697555624</v>
       </c>
       <c r="D5">
-        <v>0.07290785448745396</v>
+        <v>0.0741339503143621</v>
       </c>
       <c r="E5">
-        <v>0.05946430579608908</v>
+        <v>0.05832790299102797</v>
       </c>
       <c r="F5">
-        <v>0.6226141801242449</v>
+        <v>0.594247155194175</v>
       </c>
       <c r="G5">
-        <v>0.3964355573358702</v>
+        <v>0.3564344262568042</v>
       </c>
       <c r="H5">
-        <v>0.006473253298119208</v>
+        <v>0.005459793809187652</v>
       </c>
       <c r="I5">
-        <v>0.005501765390540037</v>
+        <v>0.004096241466335471</v>
       </c>
       <c r="J5">
-        <v>0.3475241783681895</v>
+        <v>0.3601637116920955</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08073625658413119</v>
+        <v>0.175860576207139</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09566899623594161</v>
       </c>
       <c r="N5">
-        <v>0.1427822085284873</v>
+        <v>0.07852818904074077</v>
       </c>
       <c r="O5">
-        <v>0.2760896218462427</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9861249573953685</v>
+        <v>0.1541565601271699</v>
       </c>
       <c r="Q5">
-        <v>1.515134864539178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2742853298211188</v>
+      </c>
+      <c r="R5">
+        <v>0.9718353872164158</v>
+      </c>
+      <c r="S5">
+        <v>1.432152190592262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.475773521339278</v>
+        <v>1.439455555116979</v>
       </c>
       <c r="C6">
-        <v>0.294538201925036</v>
+        <v>0.2872432564317791</v>
       </c>
       <c r="D6">
-        <v>0.07274112043468506</v>
+        <v>0.07396810427242428</v>
       </c>
       <c r="E6">
-        <v>0.05939733084047294</v>
+        <v>0.05827108070996534</v>
       </c>
       <c r="F6">
-        <v>0.6210902587577607</v>
+        <v>0.5928662574498702</v>
       </c>
       <c r="G6">
-        <v>0.3951317378747348</v>
+        <v>0.3553223912710521</v>
       </c>
       <c r="H6">
-        <v>0.006561982681576262</v>
+        <v>0.005536126005768138</v>
       </c>
       <c r="I6">
-        <v>0.005693659362481895</v>
+        <v>0.00428815504512059</v>
       </c>
       <c r="J6">
-        <v>0.3470653682672946</v>
+        <v>0.3596330905594272</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08064765901067172</v>
+        <v>0.1758548573095702</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09558008183097222</v>
       </c>
       <c r="N6">
-        <v>0.1422629652855321</v>
+        <v>0.07844456438368352</v>
       </c>
       <c r="O6">
-        <v>0.2741803436083217</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9870296477457927</v>
+        <v>0.1535869227745081</v>
       </c>
       <c r="Q6">
-        <v>1.511397248012869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2723952736481863</v>
+      </c>
+      <c r="R6">
+        <v>0.9725072061020938</v>
+      </c>
+      <c r="S6">
+        <v>1.428812266014305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.547184000448027</v>
+        <v>1.506623748598145</v>
       </c>
       <c r="C7">
-        <v>0.3021116293031696</v>
+        <v>0.2961641574046752</v>
       </c>
       <c r="D7">
-        <v>0.07402748464305375</v>
+        <v>0.07535833083380084</v>
       </c>
       <c r="E7">
-        <v>0.05970447774063192</v>
+        <v>0.05852297652207117</v>
       </c>
       <c r="F7">
-        <v>0.6273652371906024</v>
+        <v>0.5974828155697836</v>
       </c>
       <c r="G7">
-        <v>0.4002936249391382</v>
+        <v>0.3620960252233161</v>
       </c>
       <c r="H7">
-        <v>0.005992828370345482</v>
+        <v>0.005052506628210773</v>
       </c>
       <c r="I7">
-        <v>0.005254919974239769</v>
+        <v>0.003989486847463475</v>
       </c>
       <c r="J7">
-        <v>0.3482592652678775</v>
+        <v>0.3571434912050506</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.08117694114191165</v>
+        <v>0.1741918463871954</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09540575887834279</v>
       </c>
       <c r="N7">
-        <v>0.1473311602222438</v>
+        <v>0.07894950350402663</v>
       </c>
       <c r="O7">
-        <v>0.2869335873582983</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9836697339697338</v>
+        <v>0.1590257147919445</v>
       </c>
       <c r="Q7">
-        <v>1.524926948648201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2848507015653681</v>
+      </c>
+      <c r="R7">
+        <v>0.9714634262950099</v>
+      </c>
+      <c r="S7">
+        <v>1.437489229493409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.86395384434806</v>
+        <v>1.806337289697694</v>
       </c>
       <c r="C8">
-        <v>0.3344235673865228</v>
+        <v>0.335257446449134</v>
       </c>
       <c r="D8">
-        <v>0.07973178285311633</v>
+        <v>0.08131648862661223</v>
       </c>
       <c r="E8">
-        <v>0.0610765560536386</v>
+        <v>0.05963509498240782</v>
       </c>
       <c r="F8">
-        <v>0.6573710591855786</v>
+        <v>0.6214790818472551</v>
       </c>
       <c r="G8">
-        <v>0.4250073041362796</v>
+        <v>0.3881134572559475</v>
       </c>
       <c r="H8">
-        <v>0.003857370102296309</v>
+        <v>0.003231772037799951</v>
       </c>
       <c r="I8">
-        <v>0.003481553198364296</v>
+        <v>0.002712879383638622</v>
       </c>
       <c r="J8">
-        <v>0.3546823821012808</v>
+        <v>0.3558173831734806</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.08345025421100294</v>
+        <v>0.1679259651713672</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.09621796044072362</v>
       </c>
       <c r="N8">
-        <v>0.169369115205285</v>
+        <v>0.081151876106901</v>
       </c>
       <c r="O8">
-        <v>0.3432508403141128</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9695233850754619</v>
+        <v>0.182812749048253</v>
       </c>
       <c r="Q8">
-        <v>1.591133612512863</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3401451846081329</v>
+      </c>
+      <c r="R8">
+        <v>0.9668864225059295</v>
+      </c>
+      <c r="S8">
+        <v>1.486481034874146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.486123265359936</v>
+        <v>2.39678791977633</v>
       </c>
       <c r="C9">
-        <v>0.3960092963373825</v>
+        <v>0.4120247768769332</v>
       </c>
       <c r="D9">
-        <v>0.09110327527376683</v>
+        <v>0.09284812917459817</v>
       </c>
       <c r="E9">
-        <v>0.06375254921307238</v>
+        <v>0.06177116953381301</v>
       </c>
       <c r="F9">
-        <v>0.722594930360863</v>
+        <v>0.6766300701488461</v>
       </c>
       <c r="G9">
-        <v>0.4786997128077957</v>
+        <v>0.4339799014810524</v>
       </c>
       <c r="H9">
-        <v>0.001164336468994498</v>
+        <v>0.0009444215288473279</v>
       </c>
       <c r="I9">
-        <v>0.00127138589611242</v>
+        <v>0.001129853189935304</v>
       </c>
       <c r="J9">
-        <v>0.3705074075882777</v>
+        <v>0.3695939657285408</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0876529886596753</v>
+        <v>0.1576893399090658</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1030820570890896</v>
       </c>
       <c r="N9">
-        <v>0.2122402825887519</v>
+        <v>0.085289970382596</v>
       </c>
       <c r="O9">
-        <v>0.4536526243059811</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9458847320694588</v>
+        <v>0.2294506616794649</v>
       </c>
       <c r="Q9">
-        <v>1.738747265299764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4489528257828681</v>
+      </c>
+      <c r="R9">
+        <v>0.9610013217457194</v>
+      </c>
+      <c r="S9">
+        <v>1.605880192061733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.928883190082274</v>
+        <v>2.809541437278654</v>
       </c>
       <c r="C10">
-        <v>0.4448575419902738</v>
+        <v>0.4703122848890473</v>
       </c>
       <c r="D10">
-        <v>0.09821867028561115</v>
+        <v>0.100719495045297</v>
       </c>
       <c r="E10">
-        <v>0.0646944055693659</v>
+        <v>0.06245337842733534</v>
       </c>
       <c r="F10">
-        <v>0.7642908007278493</v>
+        <v>0.7067564728031854</v>
       </c>
       <c r="G10">
-        <v>0.5137937767592291</v>
+        <v>0.4807623311602214</v>
       </c>
       <c r="H10">
-        <v>0.0004394887292020755</v>
+        <v>0.0003811642522268954</v>
       </c>
       <c r="I10">
-        <v>0.0009250719245228467</v>
+        <v>0.001081926371856667</v>
       </c>
       <c r="J10">
-        <v>0.3802821133943581</v>
+        <v>0.3549137791348898</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.09070416574493834</v>
+        <v>0.1486756007112753</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1087066427780279</v>
       </c>
       <c r="N10">
-        <v>0.2370528156473313</v>
+        <v>0.08845402560344873</v>
       </c>
       <c r="O10">
-        <v>0.5287681049816086</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.937750176413374</v>
+        <v>0.2566219255939188</v>
       </c>
       <c r="Q10">
-        <v>1.834050780354318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5218682483613648</v>
+      </c>
+      <c r="R10">
+        <v>0.9693851011071786</v>
+      </c>
+      <c r="S10">
+        <v>1.666939129080902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.035827461761528</v>
+        <v>2.903077659954079</v>
       </c>
       <c r="C11">
-        <v>0.4919665643073472</v>
+        <v>0.5157055355446687</v>
       </c>
       <c r="D11">
-        <v>0.08942425269810883</v>
+        <v>0.09292195180420038</v>
       </c>
       <c r="E11">
-        <v>0.0588916429318731</v>
+        <v>0.05714089597914196</v>
       </c>
       <c r="F11">
-        <v>0.7109661435628496</v>
+        <v>0.6484570358756017</v>
       </c>
       <c r="G11">
-        <v>0.4778845330321104</v>
+        <v>0.4836672882064619</v>
       </c>
       <c r="H11">
-        <v>0.01898705896725872</v>
+        <v>0.01894860188060576</v>
       </c>
       <c r="I11">
-        <v>0.001430394114698252</v>
+        <v>0.001738013424727569</v>
       </c>
       <c r="J11">
-        <v>0.3586961030405575</v>
+        <v>0.2953495047380201</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09791467163584855</v>
+        <v>0.1346301715273839</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.09932872099661338</v>
       </c>
       <c r="N11">
-        <v>0.1896601547353782</v>
+        <v>0.09723772416991139</v>
       </c>
       <c r="O11">
-        <v>0.5124686558051224</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9834669308313977</v>
+        <v>0.2063117776108498</v>
       </c>
       <c r="Q11">
-        <v>1.71290501745662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5037182876216519</v>
+      </c>
+      <c r="R11">
+        <v>1.030513708284715</v>
+      </c>
+      <c r="S11">
+        <v>1.528262656531069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.036076482860267</v>
+        <v>2.90267076888307</v>
       </c>
       <c r="C12">
-        <v>0.5207562668282435</v>
+        <v>0.5415777531962078</v>
       </c>
       <c r="D12">
-        <v>0.08087319409955995</v>
+        <v>0.08455291444695945</v>
       </c>
       <c r="E12">
-        <v>0.05663444473042412</v>
+        <v>0.05518103530187302</v>
       </c>
       <c r="F12">
-        <v>0.6601058940089644</v>
+        <v>0.5988190673659659</v>
       </c>
       <c r="G12">
-        <v>0.4425937522753429</v>
+        <v>0.4668142027897915</v>
       </c>
       <c r="H12">
-        <v>0.05769633102170246</v>
+        <v>0.05765980003727833</v>
       </c>
       <c r="I12">
-        <v>0.00142978478129141</v>
+        <v>0.001741860957339192</v>
       </c>
       <c r="J12">
-        <v>0.3394957170005171</v>
+        <v>0.265646260419544</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1096035222858198</v>
+        <v>0.1263014102152269</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.09131278310130497</v>
       </c>
       <c r="N12">
-        <v>0.1489406706761542</v>
+        <v>0.1100831111610319</v>
       </c>
       <c r="O12">
-        <v>0.4832602705462676</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1.027492958030905</v>
+        <v>0.1628662407138606</v>
       </c>
       <c r="Q12">
-        <v>1.597951374814642</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4740954187469555</v>
+      </c>
+      <c r="R12">
+        <v>1.082070265720589</v>
+      </c>
+      <c r="S12">
+        <v>1.415143522925746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.949150235172624</v>
+        <v>2.827949836267464</v>
       </c>
       <c r="C13">
-        <v>0.5388471522930729</v>
+        <v>0.5570208399252863</v>
       </c>
       <c r="D13">
-        <v>0.07210838104995787</v>
+        <v>0.07521689595698433</v>
       </c>
       <c r="E13">
-        <v>0.05682953259637813</v>
+        <v>0.05563330149694767</v>
       </c>
       <c r="F13">
-        <v>0.6060431413594074</v>
+        <v>0.5520370582260696</v>
       </c>
       <c r="G13">
-        <v>0.4037573739457798</v>
+        <v>0.4250715170641826</v>
       </c>
       <c r="H13">
-        <v>0.1135366804270319</v>
+        <v>0.1134843636791203</v>
       </c>
       <c r="I13">
-        <v>0.001390599254796676</v>
+        <v>0.001677184947871169</v>
       </c>
       <c r="J13">
-        <v>0.3199804698598996</v>
+        <v>0.2571314834459244</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1251142747169993</v>
+        <v>0.120905456360072</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.08374655742436765</v>
       </c>
       <c r="N13">
-        <v>0.1119054958117971</v>
+        <v>0.1265033336027912</v>
       </c>
       <c r="O13">
-        <v>0.4423931810798365</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.073199572226997</v>
+        <v>0.1232036659786573</v>
       </c>
       <c r="Q13">
-        <v>1.474736983999151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.4342239568581192</v>
+      </c>
+      <c r="R13">
+        <v>1.127221986935751</v>
+      </c>
+      <c r="S13">
+        <v>1.312891156284849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.848150478364005</v>
+        <v>2.741031588144608</v>
       </c>
       <c r="C14">
-        <v>0.5471464522812255</v>
+        <v>0.5636232729917197</v>
       </c>
       <c r="D14">
-        <v>0.06599950803342836</v>
+        <v>0.06845953932890581</v>
       </c>
       <c r="E14">
-        <v>0.05840838709052409</v>
+        <v>0.05741418595931158</v>
       </c>
       <c r="F14">
-        <v>0.5668631544390408</v>
+        <v>0.5202088388235993</v>
       </c>
       <c r="G14">
-        <v>0.3749727583916069</v>
+        <v>0.3860338080185528</v>
       </c>
       <c r="H14">
-        <v>0.1629759824708259</v>
+        <v>0.1629010993612212</v>
       </c>
       <c r="I14">
-        <v>0.001445201625072556</v>
+        <v>0.001710767559742976</v>
       </c>
       <c r="J14">
-        <v>0.3061505656460497</v>
+        <v>0.2589249098748851</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1383803276208724</v>
+        <v>0.1181969029188998</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0787133646769469</v>
       </c>
       <c r="N14">
-        <v>0.08866075920584393</v>
+        <v>0.1402575282452005</v>
       </c>
       <c r="O14">
-        <v>0.4087748070150568</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.106571126596009</v>
+        <v>0.09821765545785865</v>
       </c>
       <c r="Q14">
-        <v>1.384703141610174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4018537806923064</v>
+      </c>
+      <c r="R14">
+        <v>1.156150899127866</v>
+      </c>
+      <c r="S14">
+        <v>1.244785158350439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.804051339767284</v>
+        <v>2.702780003443536</v>
       </c>
       <c r="C15">
-        <v>0.5472869479670237</v>
+        <v>0.5634581307758992</v>
       </c>
       <c r="D15">
-        <v>0.06443292135366363</v>
+        <v>0.06663485927771262</v>
       </c>
       <c r="E15">
-        <v>0.05894763953855975</v>
+        <v>0.05802615871790184</v>
       </c>
       <c r="F15">
-        <v>0.5561647235489531</v>
+        <v>0.5122992383688612</v>
       </c>
       <c r="G15">
-        <v>0.3667905044764979</v>
+        <v>0.3720543905879481</v>
       </c>
       <c r="H15">
-        <v>0.1755337261508174</v>
+        <v>0.1754463838275626</v>
       </c>
       <c r="I15">
-        <v>0.001577377465543428</v>
+        <v>0.00185042621479159</v>
       </c>
       <c r="J15">
-        <v>0.3025168437225716</v>
+        <v>0.2626314597984702</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1416230144433399</v>
+        <v>0.1178883940104534</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.07747035594888274</v>
       </c>
       <c r="N15">
-        <v>0.08324653940403692</v>
+        <v>0.1435848892150347</v>
       </c>
       <c r="O15">
-        <v>0.3981025191815917</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.114818114220753</v>
+        <v>0.09238518538741403</v>
       </c>
       <c r="Q15">
-        <v>1.359716277283496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3917217157878312</v>
+      </c>
+      <c r="R15">
+        <v>1.161657569916841</v>
+      </c>
+      <c r="S15">
+        <v>1.22833715159139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.631129606455715</v>
+        <v>2.550351092946698</v>
       </c>
       <c r="C16">
-        <v>0.5225794971572668</v>
+        <v>0.5389477742989754</v>
       </c>
       <c r="D16">
-        <v>0.06335020784720058</v>
+        <v>0.06468014234516062</v>
       </c>
       <c r="E16">
-        <v>0.0583877251245255</v>
+        <v>0.05765100582366856</v>
       </c>
       <c r="F16">
-        <v>0.5488561909451519</v>
+        <v>0.5135370967552149</v>
       </c>
       <c r="G16">
-        <v>0.3591116630740601</v>
+        <v>0.3375439951173647</v>
       </c>
       <c r="H16">
-        <v>0.1630892581145389</v>
+        <v>0.1629257727423408</v>
       </c>
       <c r="I16">
-        <v>0.001815333004342889</v>
+        <v>0.002011215157095236</v>
       </c>
       <c r="J16">
-        <v>0.3019045694070144</v>
+        <v>0.2936708212682788</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1365652714645762</v>
+        <v>0.1219052348718233</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07787104990869054</v>
       </c>
       <c r="N16">
-        <v>0.0812779845338909</v>
+        <v>0.1382803496650453</v>
       </c>
       <c r="O16">
-        <v>0.3751046778968146</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.106241226653154</v>
+        <v>0.09027729161469011</v>
       </c>
       <c r="Q16">
-        <v>1.341970819756767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3707415151138846</v>
+      </c>
+      <c r="R16">
+        <v>1.139114905934107</v>
+      </c>
+      <c r="S16">
+        <v>1.237698922725428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.552020965171494</v>
+        <v>2.477710488152979</v>
       </c>
       <c r="C17">
-        <v>0.4993328089834108</v>
+        <v>0.5160513664248469</v>
       </c>
       <c r="D17">
-        <v>0.06569886895891131</v>
+        <v>0.0667536595055509</v>
       </c>
       <c r="E17">
-        <v>0.05689513541956792</v>
+        <v>0.05612330094185847</v>
       </c>
       <c r="F17">
-        <v>0.56389062745545</v>
+        <v>0.5306586507758126</v>
       </c>
       <c r="G17">
-        <v>0.3684014301439902</v>
+        <v>0.3348429640475885</v>
       </c>
       <c r="H17">
-        <v>0.1255042933333215</v>
+        <v>0.1252911007873792</v>
       </c>
       <c r="I17">
-        <v>0.002009397899848331</v>
+        <v>0.002155641136171838</v>
       </c>
       <c r="J17">
-        <v>0.3087634344910697</v>
+        <v>0.314424951506119</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1252121062050051</v>
+        <v>0.1266635994735772</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08059230847593035</v>
       </c>
       <c r="N17">
-        <v>0.09151099073906011</v>
+        <v>0.1264945046568613</v>
       </c>
       <c r="O17">
-        <v>0.3751165912935974</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.082236217194847</v>
+        <v>0.1012643770569426</v>
       </c>
       <c r="Q17">
-        <v>1.375913239305603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.37146037140473</v>
+      </c>
+      <c r="R17">
+        <v>1.10853465521609</v>
+      </c>
+      <c r="S17">
+        <v>1.2787998894282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.546664051947062</v>
+        <v>2.470259215103795</v>
       </c>
       <c r="C18">
-        <v>0.4739526464999244</v>
+        <v>0.4918405884755543</v>
       </c>
       <c r="D18">
-        <v>0.07149903253601764</v>
+        <v>0.07255056383076663</v>
       </c>
       <c r="E18">
-        <v>0.05577112051427657</v>
+        <v>0.05476427621333446</v>
       </c>
       <c r="F18">
-        <v>0.6014320334343211</v>
+        <v>0.5663679399080621</v>
       </c>
       <c r="G18">
-        <v>0.3946048924433256</v>
+        <v>0.3536388162980941</v>
       </c>
       <c r="H18">
-        <v>0.0727336050250571</v>
+        <v>0.07250580450841682</v>
       </c>
       <c r="I18">
-        <v>0.001833412494890219</v>
+        <v>0.001914340378506019</v>
       </c>
       <c r="J18">
-        <v>0.3233996004820341</v>
+        <v>0.3340966313844831</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1099694415747052</v>
+        <v>0.1332848918260403</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.08606596193819094</v>
       </c>
       <c r="N18">
-        <v>0.1159152073811569</v>
+        <v>0.1105531290069379</v>
       </c>
       <c r="O18">
-        <v>0.3953197761243388</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1.043207689325115</v>
+        <v>0.1273864634337158</v>
       </c>
       <c r="Q18">
-        <v>1.462049207528793</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3916866542361745</v>
+      </c>
+      <c r="R18">
+        <v>1.066521569871455</v>
+      </c>
+      <c r="S18">
+        <v>1.360279708431008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.594567014904158</v>
+        <v>2.510511772963923</v>
       </c>
       <c r="C19">
-        <v>0.4523667699551197</v>
+        <v>0.4723584552662032</v>
       </c>
       <c r="D19">
-        <v>0.08015041151708147</v>
+        <v>0.08136121133395591</v>
       </c>
       <c r="E19">
-        <v>0.05698516791802088</v>
+        <v>0.05557773982664604</v>
       </c>
       <c r="F19">
-        <v>0.6534952524025499</v>
+        <v>0.614021284735351</v>
       </c>
       <c r="G19">
-        <v>0.4313981278052523</v>
+        <v>0.3848893137472515</v>
       </c>
       <c r="H19">
-        <v>0.02734237088434099</v>
+        <v>0.02713917325662862</v>
       </c>
       <c r="I19">
-        <v>0.001907015684706082</v>
+        <v>0.002030730235090594</v>
       </c>
       <c r="J19">
-        <v>0.3425453514774972</v>
+        <v>0.3531925331205628</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.097122412782916</v>
+        <v>0.1407880471297975</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.09323397092288133</v>
       </c>
       <c r="N19">
-        <v>0.1548130894393509</v>
+        <v>0.09672991638007389</v>
       </c>
       <c r="O19">
-        <v>0.4306866223906809</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>1.000857188540607</v>
+        <v>0.1688749503373046</v>
       </c>
       <c r="Q19">
-        <v>1.580125981360226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4266456784330828</v>
+      </c>
+      <c r="R19">
+        <v>1.023296585374823</v>
+      </c>
+      <c r="S19">
+        <v>1.466125168517465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.802198507816229</v>
+        <v>2.695183834224622</v>
       </c>
       <c r="C20">
-        <v>0.4362747177942765</v>
+        <v>0.4609087707350454</v>
       </c>
       <c r="D20">
-        <v>0.09640592676250037</v>
+        <v>0.09831241003157487</v>
       </c>
       <c r="E20">
-        <v>0.06426744462053779</v>
+        <v>0.06207054009472479</v>
       </c>
       <c r="F20">
-        <v>0.7485816545970749</v>
+        <v>0.6970377975323032</v>
       </c>
       <c r="G20">
-        <v>0.5003514674913134</v>
+        <v>0.4540596829822618</v>
       </c>
       <c r="H20">
-        <v>0.0005507582347314965</v>
+        <v>0.0004554681675341676</v>
       </c>
       <c r="I20">
-        <v>0.001733560276722557</v>
+        <v>0.001982189215840258</v>
       </c>
       <c r="J20">
-        <v>0.3755483006561775</v>
+        <v>0.3705129578920179</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.08986596808392022</v>
+        <v>0.1503406773827898</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.106394130916506</v>
       </c>
       <c r="N20">
-        <v>0.2316597431355376</v>
+        <v>0.08766548726124146</v>
       </c>
       <c r="O20">
-        <v>0.5083113342438068</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9431554200932695</v>
+        <v>0.250720690539282</v>
       </c>
       <c r="Q20">
-        <v>1.795528668768043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5026137448875261</v>
+      </c>
+      <c r="R20">
+        <v>0.96915838386942</v>
+      </c>
+      <c r="S20">
+        <v>1.646845914861302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.158818618418366</v>
+        <v>3.004422849303921</v>
       </c>
       <c r="C21">
-        <v>0.4693077006684803</v>
+        <v>0.494904130215815</v>
       </c>
       <c r="D21">
-        <v>0.1041251541843593</v>
+        <v>0.1088541620466117</v>
       </c>
       <c r="E21">
-        <v>0.06647805891880321</v>
+        <v>0.06418553641051172</v>
       </c>
       <c r="F21">
-        <v>0.7952287227896235</v>
+        <v>0.7189598273676836</v>
       </c>
       <c r="G21">
-        <v>0.5379775367918711</v>
+        <v>0.5571870611283174</v>
       </c>
       <c r="H21">
-        <v>3.029784009456193E-05</v>
+        <v>2.175815878580067E-05</v>
       </c>
       <c r="I21">
-        <v>0.001679783580417649</v>
+        <v>0.002058282858468097</v>
       </c>
       <c r="J21">
-        <v>0.3885242813153411</v>
+        <v>0.2989618813355079</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.09196890171068972</v>
+        <v>0.1435496171503416</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1110643382817358</v>
       </c>
       <c r="N21">
-        <v>0.2618251246573493</v>
+        <v>0.08935703776105708</v>
       </c>
       <c r="O21">
-        <v>0.5749978670110565</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9301660711221302</v>
+        <v>0.2829963517659593</v>
       </c>
       <c r="Q21">
-        <v>1.902792366095412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5641641931432488</v>
+      </c>
+      <c r="R21">
+        <v>0.978015532458997</v>
+      </c>
+      <c r="S21">
+        <v>1.67808956670882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.390658940187222</v>
+        <v>3.203338817813858</v>
       </c>
       <c r="C22">
-        <v>0.4905457063302663</v>
+        <v>0.5159982012390572</v>
       </c>
       <c r="D22">
-        <v>0.1084236617521199</v>
+        <v>0.1152521456058011</v>
       </c>
       <c r="E22">
-        <v>0.06749174314076711</v>
+        <v>0.06521967750985258</v>
       </c>
       <c r="F22">
-        <v>0.8238709450511124</v>
+        <v>0.7302832010900957</v>
       </c>
       <c r="G22">
-        <v>0.5616624068125731</v>
+        <v>0.6331234400422687</v>
       </c>
       <c r="H22">
-        <v>1.444423964236385E-05</v>
+        <v>1.318989128340498E-05</v>
       </c>
       <c r="I22">
-        <v>0.001582256783922098</v>
+        <v>0.001916662005825742</v>
       </c>
       <c r="J22">
-        <v>0.3966102464169126</v>
+        <v>0.2566814923673277</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.09340960506492468</v>
+        <v>0.1390027595928363</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1141010974798462</v>
       </c>
       <c r="N22">
-        <v>0.2772994601624248</v>
+        <v>0.09062239843493458</v>
       </c>
       <c r="O22">
-        <v>0.6158553002908533</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9234988102699973</v>
+        <v>0.2995854378957716</v>
       </c>
       <c r="Q22">
-        <v>1.970140616112474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6013384280397389</v>
+      </c>
+      <c r="R22">
+        <v>0.9868371261503768</v>
+      </c>
+      <c r="S22">
+        <v>1.692045000099029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.27083915484792</v>
+        <v>3.104116007447431</v>
       </c>
       <c r="C23">
-        <v>0.4776066490861126</v>
+        <v>0.5039213394898638</v>
       </c>
       <c r="D23">
-        <v>0.1060769323955242</v>
+        <v>0.1114605265034569</v>
       </c>
       <c r="E23">
-        <v>0.06700486123251892</v>
+        <v>0.06468267570812714</v>
       </c>
       <c r="F23">
-        <v>0.8101274652514832</v>
+        <v>0.727718633382338</v>
       </c>
       <c r="G23">
-        <v>0.550425328562369</v>
+        <v>0.5850720163489882</v>
       </c>
       <c r="H23">
-        <v>1.189605023155238E-06</v>
+        <v>4.470066328199351E-07</v>
       </c>
       <c r="I23">
-        <v>0.001309097020012473</v>
+        <v>0.001611508985431165</v>
       </c>
       <c r="J23">
-        <v>0.3930012685618607</v>
+        <v>0.2862542629292903</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.09266182867927863</v>
+        <v>0.1420281509273345</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1132410156212913</v>
       </c>
       <c r="N23">
-        <v>0.2684739939403187</v>
+        <v>0.08997747356663144</v>
       </c>
       <c r="O23">
-        <v>0.5942419889300936</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9256804038820761</v>
+        <v>0.2902030294025764</v>
       </c>
       <c r="Q23">
-        <v>1.938652185370131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5821571180798131</v>
+      </c>
+      <c r="R23">
+        <v>0.9791172078873984</v>
+      </c>
+      <c r="S23">
+        <v>1.69511273154248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.810246071297627</v>
+        <v>2.702599046932789</v>
       </c>
       <c r="C24">
-        <v>0.431359847381259</v>
+        <v>0.4558689416445532</v>
       </c>
       <c r="D24">
-        <v>0.09734457006982211</v>
+        <v>0.09925392014329049</v>
       </c>
       <c r="E24">
-        <v>0.06506624282126161</v>
+        <v>0.06280870733134059</v>
       </c>
       <c r="F24">
-        <v>0.7568224203112592</v>
+        <v>0.7047875015161722</v>
       </c>
       <c r="G24">
-        <v>0.5066228749120967</v>
+        <v>0.4592535852010968</v>
       </c>
       <c r="H24">
-        <v>0.0004048162916931997</v>
+        <v>0.0003129858721167</v>
       </c>
       <c r="I24">
-        <v>0.001234552171784919</v>
+        <v>0.001384954534792371</v>
       </c>
       <c r="J24">
-        <v>0.3788064089819585</v>
+        <v>0.3742020062736913</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.08975444288980228</v>
+        <v>0.1519158743344065</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1078859830269074</v>
       </c>
       <c r="N24">
-        <v>0.2361042263591884</v>
+        <v>0.08738540940094719</v>
       </c>
       <c r="O24">
-        <v>0.5121005221750679</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9376124210699999</v>
+        <v>0.2554517795636713</v>
       </c>
       <c r="Q24">
-        <v>1.81564214559981</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5063821106219279</v>
+      </c>
+      <c r="R24">
+        <v>0.9629322249819978</v>
+      </c>
+      <c r="S24">
+        <v>1.66557792063827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.312428100278225</v>
+        <v>2.233622274875529</v>
       </c>
       <c r="C25">
-        <v>0.3816550489360964</v>
+        <v>0.3941980116272958</v>
       </c>
       <c r="D25">
-        <v>0.08807098596017937</v>
+        <v>0.08961350743815899</v>
       </c>
       <c r="E25">
-        <v>0.0629536219475435</v>
+        <v>0.06110851484018998</v>
       </c>
       <c r="F25">
-        <v>0.7020340206291706</v>
+        <v>0.6600706604126287</v>
       </c>
       <c r="G25">
-        <v>0.4615919254603256</v>
+        <v>0.4150533997690786</v>
       </c>
       <c r="H25">
-        <v>0.001727775842997326</v>
+        <v>0.001416528425261077</v>
       </c>
       <c r="I25">
-        <v>0.002122371593057615</v>
+        <v>0.001921228394102137</v>
       </c>
       <c r="J25">
-        <v>0.3648534540512998</v>
+        <v>0.3704081340800656</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.08650994169583104</v>
+        <v>0.1599103293287953</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.100329350058912</v>
       </c>
       <c r="N25">
-        <v>0.2014273610039083</v>
+        <v>0.08419590801176469</v>
       </c>
       <c r="O25">
-        <v>0.423521084444026</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9534736657932541</v>
+        <v>0.2176514850992817</v>
       </c>
       <c r="Q25">
-        <v>1.6904708451072</v>
+        <v>0.4195140740845957</v>
+      </c>
+      <c r="R25">
+        <v>0.9633289038599244</v>
+      </c>
+      <c r="S25">
+        <v>1.569317424769167</v>
       </c>
     </row>
   </sheetData>
